--- a/src/Common_Exceptions.xlsx
+++ b/src/Common_Exceptions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AmmarMansuri/IdeaProjects/safencrypt/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AmmarMansuri/IdeaProjects/safEncrypt/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43FB5FB-925B-D24F-969E-D1D84991E6C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57DFD31-EEC5-C344-9E45-BE62ADB55F12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{20B01DC0-201D-0644-AEE7-704977969841}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{20B01DC0-201D-0644-AEE7-704977969841}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
   <si>
     <t>NoSuchAlgorithmException</t>
   </si>
@@ -202,9 +202,6 @@
   </si>
   <si>
     <t>Compile Time: Unsecure Key! Key is initialized with all zeros</t>
-  </si>
-  <si>
-    <t>IllegalArgumentException</t>
   </si>
   <si>
     <t>Either the Mode/Key/IV/Padding used for encryption was different than provided for decryption</t>
@@ -568,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237002A0-E58F-A14D-986E-0E61662BC1FA}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -750,7 +747,7 @@
         <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -767,7 +764,7 @@
         <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -784,7 +781,7 @@
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -801,7 +798,7 @@
         <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -846,7 +843,7 @@
         <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
         <v>51</v>
@@ -875,11 +872,6 @@
       </c>
       <c r="E20" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
